--- a/SWE 2/ST-Comm_Testing/CreateGame.xlsx
+++ b/SWE 2/ST-Comm_Testing/CreateGame.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>Jack</t>
   </si>
@@ -27,9 +27,6 @@
     <t>123C456</t>
   </si>
   <si>
-    <t>123456XC</t>
-  </si>
-  <si>
     <t>Math</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>2+2=4</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
   <si>
     <t>sub2Numbers</t>
@@ -428,7 +428,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -441,19 +441,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>27</v>
@@ -467,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -628,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
